--- a/zoom1.xlsx
+++ b/zoom1.xlsx
@@ -43,7 +43,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -65,12 +65,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,15 +118,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,7 +153,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.71"/>
@@ -179,7 +173,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>0.861805555555556</v>
+        <v>0.891666666666667</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>79837068826</v>
@@ -190,7 +184,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0.863194444444444</v>
+        <v>0.893055555555556</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>79837068826</v>
@@ -201,7 +195,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.864583333333333</v>
+        <v>0.894444444444444</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>79837068826</v>
@@ -212,7 +206,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.865972222222222</v>
+        <v>0.895833333333333</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>79837068826</v>
@@ -223,7 +217,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>0.867361111111111</v>
+        <v>0.897222222222222</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>79837068826</v>
